--- a/pred_ohlcv/54_21/2019-10-26 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ETHOS ohlcv.xlsx
@@ -2940,7 +2940,7 @@
         <v>-214421.46669866</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-214411.46669866</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-225339.20839866</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-303054.79219866</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-303054.79219866</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-328894.80259866</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-381728.6716986599</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-467357.8720866199</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-468157.8720866199</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-466157.8720866199</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-466157.8720866199</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-466157.8720866199</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-874827.4689580499</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-874827.4689580499</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-879231.1800580499</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-810320.42985825</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-810320.42985825</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-810320.42985825</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-810798.8275582499</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-810654.5120582499</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-814934.5120582499</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ETHOS ohlcv.xlsx
@@ -2628,7 +2628,7 @@
         <v>-106987.67833323</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-214421.46669866</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-214411.46669866</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-225339.20839866</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-381728.6716986599</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-467357.8720866199</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-468157.8720866199</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-466157.8720866199</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-466157.8720866199</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-466157.8720866199</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-874827.4689580499</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-874827.4689580499</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-879231.1800580499</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-803537.9801858999</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-744362.7885582498</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-762519.7527582499</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-762461.4229582499</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-810320.42985825</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-810320.42985825</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-810798.8275582499</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-810654.5120582499</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-814934.5120582499</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
